--- a/Financials/MA.xlsx
+++ b/Financials/MA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC89F461-9A9A-074D-80C3-EA3F901C13FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA5B3AD-D654-594D-965D-238E3CCAAA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1936,10 +1936,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>527.8999</v>
-    <v>384.3</v>
-    <v>1.0972999999999999</v>
-    <v>15.56</v>
-    <v>3.0778E-2</v>
+    <v>384.20499999999998</v>
+    <v>1.0973999999999999</v>
+    <v>-3.16</v>
+    <v>-6.0640000000000008E-3</v>
+    <v>1.42</v>
+    <v>2.7420000000000001E-3</v>
     <v>USD</v>
     <v>Mastercard Incorporated is a technology company that connects consumers, financial institutions, merchants, governments and businesses across the world, enabling them to use electronic forms of payment. It allows users to make payments by creating a range of payment solutions and services using its brands: MasterCard, Maestro and Cirrus. It enables a variety of payments capabilities (including products and value-added services and solutions) over its multi-rail network among account holders, merchants, financial institutions, businesses, governments and others, offering customers one partner for their payment needs. Its products include consumer credit, consumer debit, prepaid, B2B accounts payable, commercial point of sale, disbursements and remittances, and others. It offers additional payment capabilities that include automated clearing house (ACH) transactions (both batch and real-time account-based payments). It also offers other services, such as cyber and intelligence solutions.</v>
     <v>33400</v>
@@ -1947,23 +1949,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2000 Purchase St, PURCHASE, NY, 10577 US</v>
-    <v>523</v>
+    <v>524.03</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.976464178122</v>
+    <v>45604.040451318753</v>
     <v>0</v>
-    <v>515.94000000000005</v>
-    <v>478300142832</v>
+    <v>516.59010000000001</v>
+    <v>475408974867</v>
     <v>MASTERCARD INCORPORATED.</v>
     <v>MASTERCARD INCORPORATED.</v>
-    <v>520.86</v>
-    <v>39.390599999999999</v>
-    <v>505.56</v>
-    <v>521.12</v>
+    <v>523.99</v>
+    <v>38.213799999999999</v>
+    <v>521.13</v>
+    <v>517.97</v>
+    <v>519.29999999999995</v>
     <v>917831100</v>
     <v>MA</v>
     <v>MASTERCARD INCORPORATED. (XNYS:MA)</v>
-    <v>72</v>
+    <v>2382508</v>
     <v>2279725</v>
     <v>2001</v>
   </rv>
@@ -1996,6 +1999,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2016,6 +2021,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2032,7 +2038,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2043,13 +2049,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2115,13 +2124,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2166,6 +2181,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2173,6 +2191,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2873,14 +2894,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>521.12</v>
+        <v>517.97</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>17.02984201495407</v>
+        <v>16.926902188528093</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2920,14 +2941,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.0778E-2</v>
+        <v>-6.0640000000000008E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>35.622264305652791</v>
+        <v>35.406939365978999</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2968,14 +2989,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>478300142832</v>
+        <v>475408974867</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.0524766130224971E-2</v>
+        <v>3.0710400459066815E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3017,7 +3038,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0972999999999999</v>
+        <v>1.0973999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3050,7 +3071,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.4241700149037203</v>
+        <v>-0.42066814326433333</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Financials/MA.xlsx
+++ b/Financials/MA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA5B3AD-D654-594D-965D-238E3CCAAA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFD506-B51E-904B-854C-97C5A4246BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1935,13 +1935,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>527.8999</v>
-    <v>384.20499999999998</v>
-    <v>1.0973999999999999</v>
-    <v>-3.16</v>
-    <v>-6.0640000000000008E-3</v>
-    <v>1.42</v>
-    <v>2.7420000000000001E-3</v>
+    <v>534.02499999999998</v>
+    <v>398.26</v>
+    <v>1.0984</v>
+    <v>-2.17</v>
+    <v>-4.1599999999999996E-3</v>
+    <v>1.36</v>
+    <v>2.6179999999999997E-3</v>
     <v>USD</v>
     <v>Mastercard Incorporated is a technology company that connects consumers, financial institutions, merchants, governments and businesses across the world, enabling them to use electronic forms of payment. It allows users to make payments by creating a range of payment solutions and services using its brands: MasterCard, Maestro and Cirrus. It enables a variety of payments capabilities (including products and value-added services and solutions) over its multi-rail network among account holders, merchants, financial institutions, businesses, governments and others, offering customers one partner for their payment needs. Its products include consumer credit, consumer debit, prepaid, B2B accounts payable, commercial point of sale, disbursements and remittances, and others. It offers additional payment capabilities that include automated clearing house (ACH) transactions (both batch and real-time account-based payments). It also offers other services, such as cyber and intelligence solutions.</v>
     <v>33400</v>
@@ -1949,25 +1949,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2000 Purchase St, PURCHASE, NY, 10577 US</v>
-    <v>524.03</v>
+    <v>522.65</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.040451318753</v>
+    <v>45616.033520392972</v>
     <v>0</v>
-    <v>516.59010000000001</v>
-    <v>475408974867</v>
+    <v>516.75599999999997</v>
+    <v>476776543206</v>
     <v>MASTERCARD INCORPORATED.</v>
     <v>MASTERCARD INCORPORATED.</v>
-    <v>523.99</v>
-    <v>38.213799999999999</v>
-    <v>521.13</v>
-    <v>517.97</v>
-    <v>519.29999999999995</v>
+    <v>518.78</v>
+    <v>39.264400000000002</v>
+    <v>521.63</v>
+    <v>519.46</v>
+    <v>520.82000000000005</v>
     <v>917831100</v>
     <v>MA</v>
     <v>MASTERCARD INCORPORATED. (XNYS:MA)</v>
-    <v>2382508</v>
-    <v>2279725</v>
+    <v>2716216</v>
+    <v>2563190</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2132,9 +2132,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2894,14 +2894,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>517.97</v>
+        <v>519.46</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>16.926902188528093</v>
+        <v>16.975594360393078</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2941,14 +2941,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-6.0640000000000008E-3</v>
+        <v>-4.1599999999999996E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>35.406939365978999</v>
+        <v>35.508791480300886</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2989,14 +2989,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>475408974867</v>
+        <v>476776543206</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.0710400459066815E-2</v>
+        <v>3.0622311873450964E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3038,7 +3038,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0973999999999999</v>
+        <v>1.0984</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.42066814326433333</v>
+        <v>-0.42232987750091766</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
